--- a/WhitePack_PrivateCatalogue_Excel_Template.xlsx
+++ b/WhitePack_PrivateCatalogue_Excel_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\WhitePack_PRIVATE_CATALOGUE_WORKING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A007551-C0BD-4314-B952-6DF869A7CC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4764D178-7AA6-4D8E-AEFC-FDF7F347C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WhitePack_PrivateCatalogue_Excel_Template.xlsx
+++ b/WhitePack_PrivateCatalogue_Excel_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\WhitePack_PRIVATE_CATALOGUE_WORKING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4764D178-7AA6-4D8E-AEFC-FDF7F347C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6241E9-E57A-42E6-AF77-880BDEE624AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,12 +163,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,7 +472,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +589,7 @@
       <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>70333029</v>
       </c>
       <c r="L3">
@@ -626,11 +629,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{27649691-63C9-4455-A8A1-D58ED79B0AC6}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{0284CB6F-8A2F-43AD-8AF1-8D872C99C40A}"/>
     <hyperlink ref="J3" r:id="rId3" xr:uid="{2666A1BE-01E9-4CA8-A688-E3B25F7D10A2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/WhitePack_PrivateCatalogue_Excel_Template.xlsx
+++ b/WhitePack_PrivateCatalogue_Excel_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\WhitePack_PRIVATE_CATALOGUE_WORKING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\WhitePack_FINAL_FIXED_SITE_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6241E9-E57A-42E6-AF77-880BDEE624AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D4BD31-4214-458E-8A56-A972FA2DA951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,9 +163,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,7 +475,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +592,7 @@
       <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>70333029</v>
       </c>
       <c r="L3">
